--- a/out/Q2A Excel Sheet.xlsx
+++ b/out/Q2A Excel Sheet.xlsx
@@ -8,33 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrysun_1/Desktop/Duke/2024-2025/Summer 2024/fishics/out/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF7D9C8-BA40-F34C-A169-CC55D6FCC0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82FA7C5-D8BC-D542-8982-10C44F80D37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27640" windowHeight="16440" xr2:uid="{4DACB700-5750-884D-ACB6-995FA53AAEA5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4DACB700-5750-884D-ACB6-995FA53AAEA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$7:$A$12</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$6</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$7:$B$12</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$6</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$7:$C$12</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$D$6</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$7:$D$12</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$E$6</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$E$7:$E$12</definedName>
-    <definedName name="_xlchart.v2.10" hidden="1">Sheet1!$B$6</definedName>
-    <definedName name="_xlchart.v2.11" hidden="1">Sheet1!$B$7:$B$12</definedName>
-    <definedName name="_xlchart.v2.12" hidden="1">Sheet1!$C$6</definedName>
-    <definedName name="_xlchart.v2.13" hidden="1">Sheet1!$C$7:$C$12</definedName>
-    <definedName name="_xlchart.v2.14" hidden="1">Sheet1!$D$6</definedName>
-    <definedName name="_xlchart.v2.15" hidden="1">Sheet1!$D$7:$D$12</definedName>
-    <definedName name="_xlchart.v2.16" hidden="1">Sheet1!$E$6</definedName>
-    <definedName name="_xlchart.v2.17" hidden="1">Sheet1!$E$7:$E$12</definedName>
-    <definedName name="_xlchart.v2.9" hidden="1">Sheet1!$A$7:$A$12</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -56,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Accuracy</t>
   </si>
@@ -92,6 +72,9 @@
   </si>
   <si>
     <t>Bottom Temperature</t>
+  </si>
+  <si>
+    <t>Combined</t>
   </si>
 </sst>
 </file>
@@ -167,62 +150,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mj-lt"/>
-                <a:ea typeface="+mj-ea"/>
-                <a:cs typeface="+mj-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Feature Importance by Season</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
-              <a:ea typeface="+mj-ea"/>
-              <a:cs typeface="+mj-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -245,10 +173,12 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -330,11 +260,18 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:pattFill prst="wdUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -416,11 +353,18 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:pattFill prst="dkDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -496,19 +440,19 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Joint</c:v>
+                  <c:v>Combined</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -598,16 +542,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -618,14 +559,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Helvetica Light" panose="020B0403020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -634,7 +575,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1241457728"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -647,14 +588,82 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="3000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="HELVETICA LIGHT" panose="020B0403020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="3000" b="1" i="0">
+                    <a:latin typeface="Helvetica Light" panose="020B0403020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Percent</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="3000" b="1" i="0" baseline="0">
+                    <a:latin typeface="Helvetica Light" panose="020B0403020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t> Importance</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="3000" b="1" i="0">
+                  <a:latin typeface="Helvetica Light" panose="020B0403020202020204" pitchFamily="34" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="3000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="HELVETICA LIGHT" panose="020B0403020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -663,14 +672,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Helvetica Light" panose="020B0403020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -681,6 +690,7 @@
         <c:crossAx val="1241468864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -692,6 +702,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.41962705243515941"/>
+          <c:y val="3.2392910606045849E-2"/>
+          <c:w val="0.56043609120740334"/>
+          <c:h val="6.3182981090843929E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -705,16 +725,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -726,15 +746,10 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -1348,16 +1363,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>4536</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>11792</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>558802</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>449036</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>87992</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>112058</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>92529</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1704,8 +1719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE4A346-A9EB-544B-B244-C983DCFFA6D3}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="S43" sqref="S43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1759,7 +1774,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">

--- a/out/Q2A Excel Sheet.xlsx
+++ b/out/Q2A Excel Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrysun_1/Desktop/Duke/2024-2025/Summer 2024/fishics/out/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82FA7C5-D8BC-D542-8982-10C44F80D37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DE1A5B-5B05-784D-B8A1-3904704D6601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4DACB700-5750-884D-ACB6-995FA53AAEA5}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -94,6 +94,12 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FFFDFDFD"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,9 +122,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1717,10 +1724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE4A346-A9EB-544B-B244-C983DCFFA6D3}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="S43" sqref="S43"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1879,6 +1886,9 @@
         <v>0.102202</v>
       </c>
     </row>
+    <row r="22" spans="4:4" ht="20" x14ac:dyDescent="0.25">
+      <c r="D22" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
